--- a/Code/Results/Cases/Case_0_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_160/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9757055239985851</v>
+        <v>1.059880695826386</v>
       </c>
       <c r="D2">
-        <v>0.9907277479332515</v>
+        <v>1.066195651312384</v>
       </c>
       <c r="E2">
-        <v>0.9916691755842683</v>
+        <v>1.06559725020907</v>
       </c>
       <c r="F2">
-        <v>0.9971737913101097</v>
+        <v>1.076294384897703</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9986379809869051</v>
+        <v>1.064864431662581</v>
       </c>
       <c r="K2">
-        <v>1.002317789488498</v>
+        <v>1.068906852217692</v>
       </c>
       <c r="L2">
-        <v>1.003245805239079</v>
+        <v>1.068310061782959</v>
       </c>
       <c r="M2">
-        <v>1.008672640640885</v>
+        <v>1.078978695818274</v>
       </c>
       <c r="N2">
-        <v>1.000749740510013</v>
+        <v>1.024944988265652</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9860335503276038</v>
+        <v>1.061845146055403</v>
       </c>
       <c r="D3">
-        <v>0.999992886996493</v>
+        <v>1.068008479248404</v>
       </c>
       <c r="E3">
-        <v>1.000743953675865</v>
+        <v>1.067371612228633</v>
       </c>
       <c r="F3">
-        <v>1.006873352081026</v>
+        <v>1.078204860854018</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.006912333998754</v>
+        <v>1.066477460189503</v>
       </c>
       <c r="K3">
-        <v>1.0106258588356</v>
+        <v>1.070532738703226</v>
       </c>
       <c r="L3">
-        <v>1.011367324317951</v>
+        <v>1.069897459242695</v>
       </c>
       <c r="M3">
-        <v>1.017419036045902</v>
+        <v>1.080703977836674</v>
       </c>
       <c r="N3">
-        <v>1.003818265571313</v>
+        <v>1.025517505399297</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9924590845532969</v>
+        <v>1.063113377602309</v>
       </c>
       <c r="D4">
-        <v>1.005764317754743</v>
+        <v>1.069178901813844</v>
       </c>
       <c r="E4">
-        <v>1.006397052630199</v>
+        <v>1.068517146255218</v>
       </c>
       <c r="F4">
-        <v>1.01291724509557</v>
+        <v>1.079438591075603</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.012057674728311</v>
+        <v>1.067518081017154</v>
       </c>
       <c r="K4">
-        <v>1.015793666839334</v>
+        <v>1.071581758037445</v>
       </c>
       <c r="L4">
-        <v>1.016418879154575</v>
+        <v>1.070921567324905</v>
       </c>
       <c r="M4">
-        <v>1.022862230609532</v>
+        <v>1.081817449544657</v>
       </c>
       <c r="N4">
-        <v>1.005723031985282</v>
+        <v>1.025886005745347</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9951035036019176</v>
+        <v>1.0636458680607</v>
       </c>
       <c r="D5">
-        <v>1.008141097542985</v>
+        <v>1.06967034282929</v>
       </c>
       <c r="E5">
-        <v>1.008725142940882</v>
+        <v>1.068998124028754</v>
       </c>
       <c r="F5">
-        <v>1.01540668245145</v>
+        <v>1.079956676848267</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.014174509262877</v>
+        <v>1.067954828209848</v>
       </c>
       <c r="K5">
-        <v>1.017920088844433</v>
+        <v>1.072022054706458</v>
       </c>
       <c r="L5">
-        <v>1.018497403532924</v>
+        <v>1.071351389393251</v>
       </c>
       <c r="M5">
-        <v>1.02510262233814</v>
+        <v>1.082284875486469</v>
       </c>
       <c r="N5">
-        <v>1.006505768718928</v>
+        <v>1.026040460367392</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9955443054610394</v>
+        <v>1.063735236599869</v>
       </c>
       <c r="D6">
-        <v>1.008537373364083</v>
+        <v>1.069752822985298</v>
       </c>
       <c r="E6">
-        <v>1.009113302834146</v>
+        <v>1.069078847341386</v>
       </c>
       <c r="F6">
-        <v>1.01582176830186</v>
+        <v>1.080043632571592</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.014527321537467</v>
+        <v>1.068028117659702</v>
       </c>
       <c r="K6">
-        <v>1.018274518886593</v>
+        <v>1.072095941226431</v>
       </c>
       <c r="L6">
-        <v>1.018843846075243</v>
+        <v>1.071423517057892</v>
       </c>
       <c r="M6">
-        <v>1.025476087252203</v>
+        <v>1.082363319116277</v>
       </c>
       <c r="N6">
-        <v>1.006636171819973</v>
+        <v>1.026066366989901</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9924946370423043</v>
+        <v>1.063120495387431</v>
       </c>
       <c r="D7">
-        <v>1.005796266042698</v>
+        <v>1.069185470824824</v>
       </c>
       <c r="E7">
-        <v>1.006428346298874</v>
+        <v>1.068523575456854</v>
       </c>
       <c r="F7">
-        <v>1.012950705903697</v>
+        <v>1.079445515995303</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.012086137203661</v>
+        <v>1.067523919699971</v>
       </c>
       <c r="K7">
-        <v>1.015822256880247</v>
+        <v>1.071587644074964</v>
       </c>
       <c r="L7">
-        <v>1.016446825466245</v>
+        <v>1.070927313408353</v>
       </c>
       <c r="M7">
-        <v>1.022892350393535</v>
+        <v>1.08182369795223</v>
       </c>
       <c r="N7">
-        <v>1.005733560166982</v>
+        <v>1.025888071387038</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9792522680240818</v>
+        <v>1.060545203331271</v>
       </c>
       <c r="D8">
-        <v>0.9939078566556269</v>
+        <v>1.066808853530931</v>
       </c>
       <c r="E8">
-        <v>0.9947838818208821</v>
+        <v>1.066197452109528</v>
       </c>
       <c r="F8">
-        <v>1.000502620381672</v>
+        <v>1.07694056277061</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.001479927707145</v>
+        <v>1.065410217344837</v>
       </c>
       <c r="K8">
-        <v>1.005170987204334</v>
+        <v>1.069456967007027</v>
       </c>
       <c r="L8">
-        <v>1.006034975422102</v>
+        <v>1.068847170079769</v>
       </c>
       <c r="M8">
-        <v>1.01167578765651</v>
+        <v>1.079562373911782</v>
       </c>
       <c r="N8">
-        <v>1.001804327812886</v>
+        <v>1.02513888153306</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9536967690200879</v>
+        <v>1.055984105720611</v>
       </c>
       <c r="D9">
-        <v>0.9710338855732416</v>
+        <v>1.062600264868534</v>
       </c>
       <c r="E9">
-        <v>0.9723823108845909</v>
+        <v>1.062077872050329</v>
       </c>
       <c r="F9">
-        <v>0.9765666859978851</v>
+        <v>1.072506734448363</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9809976775977736</v>
+        <v>1.061661000500861</v>
       </c>
       <c r="K9">
-        <v>0.9846150764384561</v>
+        <v>1.065678442843347</v>
       </c>
       <c r="L9">
-        <v>0.9859399435115476</v>
+        <v>1.06515766306946</v>
       </c>
       <c r="M9">
-        <v>0.9900517493664147</v>
+        <v>1.075554647605435</v>
       </c>
       <c r="N9">
-        <v>0.9941932284888041</v>
+        <v>1.023803481430824</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9347440842594822</v>
+        <v>1.052926576212342</v>
       </c>
       <c r="D10">
-        <v>0.9541329813716817</v>
+        <v>1.059779528477302</v>
       </c>
       <c r="E10">
-        <v>0.9558342358211163</v>
+        <v>1.059316524790413</v>
       </c>
       <c r="F10">
-        <v>0.9588906306215096</v>
+        <v>1.069536395660844</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9658093515980818</v>
+        <v>1.059143948768713</v>
       </c>
       <c r="K10">
-        <v>0.9693828879350098</v>
+        <v>1.06314226296723</v>
       </c>
       <c r="L10">
-        <v>0.9710494888025294</v>
+        <v>1.062680833646137</v>
       </c>
       <c r="M10">
-        <v>0.9740440332287312</v>
+        <v>1.072866301648161</v>
       </c>
       <c r="N10">
-        <v>0.9885413239239867</v>
+        <v>1.022902625331243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.925959624032851</v>
+        <v>1.051598365262403</v>
       </c>
       <c r="D11">
-        <v>0.9463190838689165</v>
+        <v>1.058554311315541</v>
       </c>
       <c r="E11">
-        <v>0.9481848535871076</v>
+        <v>1.05811704204199</v>
       </c>
       <c r="F11">
-        <v>0.9507204031958467</v>
+        <v>1.068246519868483</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9587734544039029</v>
+        <v>1.058049638298319</v>
       </c>
       <c r="K11">
-        <v>0.9623296842135487</v>
+        <v>1.062039767897639</v>
       </c>
       <c r="L11">
-        <v>0.964154868723867</v>
+        <v>1.061604045054462</v>
       </c>
       <c r="M11">
-        <v>0.9666356024045446</v>
+        <v>1.071698057242991</v>
       </c>
       <c r="N11">
-        <v>0.9859233609472637</v>
+        <v>1.022509954756825</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9225964164161462</v>
+        <v>1.051104341028799</v>
       </c>
       <c r="D12">
-        <v>0.9433308883664012</v>
+        <v>1.05809861587819</v>
       </c>
       <c r="E12">
-        <v>0.9452598327474092</v>
+        <v>1.057670908844889</v>
       </c>
       <c r="F12">
-        <v>0.9475962250969088</v>
+        <v>1.067766824418724</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9560806295943814</v>
+        <v>1.057642480039465</v>
       </c>
       <c r="K12">
-        <v>0.9596307360775678</v>
+        <v>1.06162958431155</v>
       </c>
       <c r="L12">
-        <v>0.9615166864811048</v>
+        <v>1.061203411594795</v>
       </c>
       <c r="M12">
-        <v>0.9638013150906058</v>
+        <v>1.071263471498063</v>
       </c>
       <c r="N12">
-        <v>0.9849216526809618</v>
+        <v>1.022363702895156</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9233226231426089</v>
+        <v>1.051210341507673</v>
       </c>
       <c r="D13">
-        <v>0.9439759569131371</v>
+        <v>1.058196391377689</v>
       </c>
       <c r="E13">
-        <v>0.9458912509499033</v>
+        <v>1.057766633051658</v>
       </c>
       <c r="F13">
-        <v>0.94827063607537</v>
+        <v>1.067869747245153</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9566620342511679</v>
+        <v>1.057729848082199</v>
       </c>
       <c r="K13">
-        <v>0.9602134394062026</v>
+        <v>1.061717600626473</v>
       </c>
       <c r="L13">
-        <v>0.9620862661406776</v>
+        <v>1.06128937929498</v>
       </c>
       <c r="M13">
-        <v>0.9644132114253188</v>
+        <v>1.071356721265141</v>
       </c>
       <c r="N13">
-        <v>0.9851379149352506</v>
+        <v>1.022395092470031</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9256837545300867</v>
+        <v>1.051557542825474</v>
       </c>
       <c r="D14">
-        <v>0.9460739027401194</v>
+        <v>1.05851665565562</v>
       </c>
       <c r="E14">
-        <v>0.9479448503322031</v>
+        <v>1.058080176728629</v>
       </c>
       <c r="F14">
-        <v>0.950464059091075</v>
+        <v>1.068206880017271</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9585525524253788</v>
+        <v>1.058015996511618</v>
       </c>
       <c r="K14">
-        <v>0.9621082695019822</v>
+        <v>1.062005875734165</v>
       </c>
       <c r="L14">
-        <v>0.9639384372123314</v>
+        <v>1.061570942271986</v>
       </c>
       <c r="M14">
-        <v>0.9664030728382531</v>
+        <v>1.071662147585232</v>
       </c>
       <c r="N14">
-        <v>0.9858411807172602</v>
+        <v>1.022497873661107</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9271247843469714</v>
+        <v>1.051771375823083</v>
       </c>
       <c r="D15">
-        <v>0.9473547705740412</v>
+        <v>1.058713901529691</v>
       </c>
       <c r="E15">
-        <v>0.9491986789538019</v>
+        <v>1.058273282276896</v>
       </c>
       <c r="F15">
-        <v>0.9518032556042922</v>
+        <v>1.068414521361466</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9597064942338306</v>
+        <v>1.058192210945734</v>
       </c>
       <c r="K15">
-        <v>0.963264910257479</v>
+        <v>1.062183402447912</v>
       </c>
       <c r="L15">
-        <v>0.9650690499556359</v>
+        <v>1.061744333646822</v>
       </c>
       <c r="M15">
-        <v>0.9676178000410272</v>
+        <v>1.071850244359646</v>
       </c>
       <c r="N15">
-        <v>0.9862704833197883</v>
+        <v>1.022561147795984</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9353138243113487</v>
+        <v>1.053014632933413</v>
       </c>
       <c r="D16">
-        <v>0.9546402118301081</v>
+        <v>1.059860759811118</v>
       </c>
       <c r="E16">
-        <v>0.9563308195307326</v>
+        <v>1.059396048653099</v>
       </c>
       <c r="F16">
-        <v>0.9594210320830984</v>
+        <v>1.069621920624345</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9662657899547838</v>
+        <v>1.059216479925519</v>
       </c>
       <c r="K16">
-        <v>0.9698405144877348</v>
+        <v>1.063215339380078</v>
       </c>
       <c r="L16">
-        <v>0.9714968356433659</v>
+        <v>1.062752204201316</v>
       </c>
       <c r="M16">
-        <v>0.9745247877277998</v>
+        <v>1.072943744492237</v>
       </c>
       <c r="N16">
-        <v>0.9887111809737943</v>
+        <v>1.022928630352987</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9402872893536524</v>
+        <v>1.053793332094963</v>
       </c>
       <c r="D17">
-        <v>0.9590702345661296</v>
+        <v>1.060579116072282</v>
       </c>
       <c r="E17">
-        <v>0.9606680162330558</v>
+        <v>1.060099298045009</v>
       </c>
       <c r="F17">
-        <v>0.9640536508922765</v>
+        <v>1.070378284137798</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9702506622034791</v>
+        <v>1.059857781946441</v>
       </c>
       <c r="K17">
-        <v>0.9738361002871923</v>
+        <v>1.063861477596405</v>
       </c>
       <c r="L17">
-        <v>0.9754027096861341</v>
+        <v>1.06338324852623</v>
       </c>
       <c r="M17">
-        <v>0.9787227388278966</v>
+        <v>1.073628536416645</v>
       </c>
       <c r="N17">
-        <v>0.9901941443287199</v>
+        <v>1.023158443197648</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9431335240086702</v>
+        <v>1.054247122801946</v>
       </c>
       <c r="D18">
-        <v>0.9616072428256436</v>
+        <v>1.060997754037345</v>
       </c>
       <c r="E18">
-        <v>0.9631519894718814</v>
+        <v>1.060509126179034</v>
       </c>
       <c r="F18">
-        <v>0.9667068746506678</v>
+        <v>1.070819102753552</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9725314671517965</v>
+        <v>1.060231418383327</v>
       </c>
       <c r="K18">
-        <v>0.9761233128075745</v>
+        <v>1.064237944356233</v>
       </c>
       <c r="L18">
-        <v>0.9776385977961674</v>
+        <v>1.063750911949205</v>
       </c>
       <c r="M18">
-        <v>0.9811261509024484</v>
+        <v>1.074027562759262</v>
       </c>
       <c r="N18">
-        <v>0.9910429493472652</v>
+        <v>1.023292239329577</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9440950995785371</v>
+        <v>1.05440178467115</v>
       </c>
       <c r="D19">
-        <v>0.9624646378148211</v>
+        <v>1.061140437142803</v>
       </c>
       <c r="E19">
-        <v>0.9639914808667266</v>
+        <v>1.060648805640094</v>
       </c>
       <c r="F19">
-        <v>0.9676035783843763</v>
+        <v>1.070969350895387</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9733020632367181</v>
+        <v>1.060358747405625</v>
       </c>
       <c r="K19">
-        <v>0.9768961192551848</v>
+        <v>1.064366240046564</v>
       </c>
       <c r="L19">
-        <v>0.9783940669130529</v>
+        <v>1.063876206028758</v>
       </c>
       <c r="M19">
-        <v>0.981938279640552</v>
+        <v>1.074163553006094</v>
       </c>
       <c r="N19">
-        <v>0.9913297232766198</v>
+        <v>1.023337818185288</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9397594296577449</v>
+        <v>1.053709827767501</v>
       </c>
       <c r="D20">
-        <v>0.9585998650123051</v>
+        <v>1.060502081367641</v>
       </c>
       <c r="E20">
-        <v>0.9602074893743693</v>
+        <v>1.060023883979475</v>
       </c>
       <c r="F20">
-        <v>0.9635617503300957</v>
+        <v>1.070297170415312</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9698276907382276</v>
+        <v>1.059789020328171</v>
       </c>
       <c r="K20">
-        <v>0.9734119626326885</v>
+        <v>1.063792196121959</v>
       </c>
       <c r="L20">
-        <v>0.9749880917791915</v>
+        <v>1.06331558641015</v>
       </c>
       <c r="M20">
-        <v>0.978277082372257</v>
+        <v>1.073555106372267</v>
       </c>
       <c r="N20">
-        <v>0.9900367340387021</v>
+        <v>1.023133812342748</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9249913516162851</v>
+        <v>1.051455319316628</v>
       </c>
       <c r="D21">
-        <v>0.9454585810541545</v>
+        <v>1.058422362412337</v>
       </c>
       <c r="E21">
-        <v>0.9473425277319814</v>
+        <v>1.057987862438358</v>
       </c>
       <c r="F21">
-        <v>0.9498207266015581</v>
+        <v>1.068107618959236</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9579981283711309</v>
+        <v>1.057931751936929</v>
       </c>
       <c r="K21">
-        <v>0.9615525667811604</v>
+        <v>1.061921004496671</v>
       </c>
       <c r="L21">
-        <v>0.9633952426855509</v>
+        <v>1.061488047541638</v>
       </c>
       <c r="M21">
-        <v>0.9658194837484428</v>
+        <v>1.071572225196358</v>
       </c>
       <c r="N21">
-        <v>0.9856349280932237</v>
+        <v>1.022467618163367</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.915116824827669</v>
+        <v>1.050033945810124</v>
       </c>
       <c r="D22">
-        <v>0.9366922854574551</v>
+        <v>1.057111305962142</v>
       </c>
       <c r="E22">
-        <v>0.9387621302302191</v>
+        <v>1.056704299849442</v>
       </c>
       <c r="F22">
-        <v>0.9406560212198017</v>
+        <v>1.066727604795402</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9500941289077259</v>
+        <v>1.05676005402948</v>
       </c>
       <c r="K22">
-        <v>0.9536316127961512</v>
+        <v>1.060740638148381</v>
       </c>
       <c r="L22">
-        <v>0.9556528258579075</v>
+        <v>1.060335136896346</v>
       </c>
       <c r="M22">
-        <v>0.9575024701443988</v>
+        <v>1.070321750871318</v>
       </c>
       <c r="N22">
-        <v>0.9826954761545471</v>
+        <v>1.022046457816724</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.920412708722268</v>
+        <v>1.050787818305922</v>
       </c>
       <c r="D23">
-        <v>0.941391708667572</v>
+        <v>1.057806656451158</v>
       </c>
       <c r="E23">
-        <v>0.9433617310114459</v>
+        <v>1.05738507328281</v>
       </c>
       <c r="F23">
-        <v>0.9455688771438745</v>
+        <v>1.067459502080612</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9543325109600646</v>
+        <v>1.057381575323464</v>
       </c>
       <c r="K23">
-        <v>0.9578787903262616</v>
+        <v>1.061366746604084</v>
       </c>
       <c r="L23">
-        <v>0.959804213057976</v>
+        <v>1.060946689499404</v>
       </c>
       <c r="M23">
-        <v>0.9619616854386746</v>
+        <v>1.070985014230036</v>
       </c>
       <c r="N23">
-        <v>0.9842714699605425</v>
+        <v>1.022269942973165</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9399981147957048</v>
+        <v>1.053747561049085</v>
       </c>
       <c r="D24">
-        <v>0.9588125490249619</v>
+        <v>1.060536891168556</v>
       </c>
       <c r="E24">
-        <v>0.9604157224923281</v>
+        <v>1.060057961477949</v>
       </c>
       <c r="F24">
-        <v>0.9637841692833127</v>
+        <v>1.070333823312749</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9700189470142604</v>
+        <v>1.059820092053893</v>
       </c>
       <c r="K24">
-        <v>0.9736037453732971</v>
+        <v>1.063823502719113</v>
       </c>
       <c r="L24">
-        <v>0.9751755698758164</v>
+        <v>1.063346161286894</v>
       </c>
       <c r="M24">
-        <v>0.9784785941739984</v>
+        <v>1.07358828748778</v>
       </c>
       <c r="N24">
-        <v>0.9901079107143869</v>
+        <v>1.023144942737654</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9606055731382009</v>
+        <v>1.057166125959339</v>
       </c>
       <c r="D25">
-        <v>0.9772084509611637</v>
+        <v>1.063690850005484</v>
       </c>
       <c r="E25">
-        <v>0.9784288568261486</v>
+        <v>1.063145439626397</v>
       </c>
       <c r="F25">
-        <v>0.9830262666351652</v>
+        <v>1.073655447433862</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.986535550850381</v>
+        <v>1.062633284044242</v>
       </c>
       <c r="K25">
-        <v>0.9901711898879911</v>
+        <v>1.066658231033261</v>
       </c>
       <c r="L25">
-        <v>0.9913715290248311</v>
+        <v>1.066114439089634</v>
       </c>
       <c r="M25">
-        <v>0.9958939196879683</v>
+        <v>1.076593574600591</v>
       </c>
       <c r="N25">
-        <v>0.9962530175741436</v>
+        <v>1.024150555004769</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_160/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.059880695826386</v>
+        <v>0.9757055239985842</v>
       </c>
       <c r="D2">
-        <v>1.066195651312384</v>
+        <v>0.9907277479332502</v>
       </c>
       <c r="E2">
-        <v>1.06559725020907</v>
+        <v>0.991669175584267</v>
       </c>
       <c r="F2">
-        <v>1.076294384897703</v>
+        <v>0.9971737913101083</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.064864431662581</v>
+        <v>0.9986379809869043</v>
       </c>
       <c r="K2">
-        <v>1.068906852217692</v>
+        <v>1.002317789488497</v>
       </c>
       <c r="L2">
-        <v>1.068310061782959</v>
+        <v>1.003245805239078</v>
       </c>
       <c r="M2">
-        <v>1.078978695818274</v>
+        <v>1.008672640640883</v>
       </c>
       <c r="N2">
-        <v>1.024944988265652</v>
+        <v>1.000749740510013</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.061845146055403</v>
+        <v>0.9860335503276045</v>
       </c>
       <c r="D3">
-        <v>1.068008479248404</v>
+        <v>0.9999928869964935</v>
       </c>
       <c r="E3">
-        <v>1.067371612228633</v>
+        <v>1.000743953675865</v>
       </c>
       <c r="F3">
-        <v>1.078204860854018</v>
+        <v>1.006873352081026</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.066477460189503</v>
+        <v>1.006912333998755</v>
       </c>
       <c r="K3">
-        <v>1.070532738703226</v>
+        <v>1.010625858835601</v>
       </c>
       <c r="L3">
-        <v>1.069897459242695</v>
+        <v>1.011367324317952</v>
       </c>
       <c r="M3">
-        <v>1.080703977836674</v>
+        <v>1.017419036045902</v>
       </c>
       <c r="N3">
-        <v>1.025517505399297</v>
+        <v>1.003818265571313</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.063113377602309</v>
+        <v>0.9924590845532969</v>
       </c>
       <c r="D4">
-        <v>1.069178901813844</v>
+        <v>1.005764317754743</v>
       </c>
       <c r="E4">
-        <v>1.068517146255218</v>
+        <v>1.006397052630199</v>
       </c>
       <c r="F4">
-        <v>1.079438591075603</v>
+        <v>1.01291724509557</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.067518081017154</v>
+        <v>1.01205767472831</v>
       </c>
       <c r="K4">
-        <v>1.071581758037445</v>
+        <v>1.015793666839334</v>
       </c>
       <c r="L4">
-        <v>1.070921567324905</v>
+        <v>1.016418879154575</v>
       </c>
       <c r="M4">
-        <v>1.081817449544657</v>
+        <v>1.022862230609532</v>
       </c>
       <c r="N4">
-        <v>1.025886005745347</v>
+        <v>1.005723031985282</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.0636458680607</v>
+        <v>0.9951035036019169</v>
       </c>
       <c r="D5">
-        <v>1.06967034282929</v>
+        <v>1.008141097542984</v>
       </c>
       <c r="E5">
-        <v>1.068998124028754</v>
+        <v>1.008725142940881</v>
       </c>
       <c r="F5">
-        <v>1.079956676848267</v>
+        <v>1.015406682451449</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.067954828209848</v>
+        <v>1.014174509262877</v>
       </c>
       <c r="K5">
-        <v>1.072022054706458</v>
+        <v>1.017920088844432</v>
       </c>
       <c r="L5">
-        <v>1.071351389393251</v>
+        <v>1.018497403532923</v>
       </c>
       <c r="M5">
-        <v>1.082284875486469</v>
+        <v>1.025102622338139</v>
       </c>
       <c r="N5">
-        <v>1.026040460367392</v>
+        <v>1.006505768718927</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.063735236599869</v>
+        <v>0.9955443054610378</v>
       </c>
       <c r="D6">
-        <v>1.069752822985298</v>
+        <v>1.008537373364081</v>
       </c>
       <c r="E6">
-        <v>1.069078847341386</v>
+        <v>1.009113302834145</v>
       </c>
       <c r="F6">
-        <v>1.080043632571592</v>
+        <v>1.015821768301859</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.068028117659702</v>
+        <v>1.014527321537465</v>
       </c>
       <c r="K6">
-        <v>1.072095941226431</v>
+        <v>1.018274518886592</v>
       </c>
       <c r="L6">
-        <v>1.071423517057892</v>
+        <v>1.018843846075241</v>
       </c>
       <c r="M6">
-        <v>1.082363319116277</v>
+        <v>1.025476087252201</v>
       </c>
       <c r="N6">
-        <v>1.026066366989901</v>
+        <v>1.006636171819973</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.063120495387431</v>
+        <v>0.9924946370423042</v>
       </c>
       <c r="D7">
-        <v>1.069185470824824</v>
+        <v>1.005796266042698</v>
       </c>
       <c r="E7">
-        <v>1.068523575456854</v>
+        <v>1.006428346298874</v>
       </c>
       <c r="F7">
-        <v>1.079445515995303</v>
+        <v>1.012950705903696</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.067523919699971</v>
+        <v>1.012086137203661</v>
       </c>
       <c r="K7">
-        <v>1.071587644074964</v>
+        <v>1.015822256880247</v>
       </c>
       <c r="L7">
-        <v>1.070927313408353</v>
+        <v>1.016446825466245</v>
       </c>
       <c r="M7">
-        <v>1.08182369795223</v>
+        <v>1.022892350393535</v>
       </c>
       <c r="N7">
-        <v>1.025888071387038</v>
+        <v>1.005733560166982</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.060545203331271</v>
+        <v>0.9792522680240805</v>
       </c>
       <c r="D8">
-        <v>1.066808853530931</v>
+        <v>0.9939078566556253</v>
       </c>
       <c r="E8">
-        <v>1.066197452109528</v>
+        <v>0.9947838818208806</v>
       </c>
       <c r="F8">
-        <v>1.07694056277061</v>
+        <v>1.00050262038167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.065410217344837</v>
+        <v>1.001479927707144</v>
       </c>
       <c r="K8">
-        <v>1.069456967007027</v>
+        <v>1.005170987204333</v>
       </c>
       <c r="L8">
-        <v>1.068847170079769</v>
+        <v>1.0060349754221</v>
       </c>
       <c r="M8">
-        <v>1.079562373911782</v>
+        <v>1.011675787656509</v>
       </c>
       <c r="N8">
-        <v>1.02513888153306</v>
+        <v>1.001804327812886</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.055984105720611</v>
+        <v>0.953696769020088</v>
       </c>
       <c r="D9">
-        <v>1.062600264868534</v>
+        <v>0.9710338855732418</v>
       </c>
       <c r="E9">
-        <v>1.062077872050329</v>
+        <v>0.9723823108845913</v>
       </c>
       <c r="F9">
-        <v>1.072506734448363</v>
+        <v>0.9765666859978854</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.061661000500861</v>
+        <v>0.9809976775977738</v>
       </c>
       <c r="K9">
-        <v>1.065678442843347</v>
+        <v>0.9846150764384564</v>
       </c>
       <c r="L9">
-        <v>1.06515766306946</v>
+        <v>0.9859399435115479</v>
       </c>
       <c r="M9">
-        <v>1.075554647605435</v>
+        <v>0.990051749366415</v>
       </c>
       <c r="N9">
-        <v>1.023803481430824</v>
+        <v>0.9941932284888042</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.052926576212342</v>
+        <v>0.9347440842594836</v>
       </c>
       <c r="D10">
-        <v>1.059779528477302</v>
+        <v>0.9541329813716833</v>
       </c>
       <c r="E10">
-        <v>1.059316524790413</v>
+        <v>0.9558342358211176</v>
       </c>
       <c r="F10">
-        <v>1.069536395660844</v>
+        <v>0.9588906306215107</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.059143948768713</v>
+        <v>0.9658093515980831</v>
       </c>
       <c r="K10">
-        <v>1.06314226296723</v>
+        <v>0.9693828879350113</v>
       </c>
       <c r="L10">
-        <v>1.062680833646137</v>
+        <v>0.9710494888025307</v>
       </c>
       <c r="M10">
-        <v>1.072866301648161</v>
+        <v>0.9740440332287325</v>
       </c>
       <c r="N10">
-        <v>1.022902625331243</v>
+        <v>0.9885413239239872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.051598365262403</v>
+        <v>0.9259596240328539</v>
       </c>
       <c r="D11">
-        <v>1.058554311315541</v>
+        <v>0.9463190838689195</v>
       </c>
       <c r="E11">
-        <v>1.05811704204199</v>
+        <v>0.9481848535871105</v>
       </c>
       <c r="F11">
-        <v>1.068246519868483</v>
+        <v>0.9507204031958495</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.058049638298319</v>
+        <v>0.9587734544039057</v>
       </c>
       <c r="K11">
-        <v>1.062039767897639</v>
+        <v>0.9623296842135517</v>
       </c>
       <c r="L11">
-        <v>1.061604045054462</v>
+        <v>0.9641548687238696</v>
       </c>
       <c r="M11">
-        <v>1.071698057242991</v>
+        <v>0.9666356024045475</v>
       </c>
       <c r="N11">
-        <v>1.022509954756825</v>
+        <v>0.9859233609472645</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.051104341028799</v>
+        <v>0.9225964164161462</v>
       </c>
       <c r="D12">
-        <v>1.05809861587819</v>
+        <v>0.943330888366401</v>
       </c>
       <c r="E12">
-        <v>1.057670908844889</v>
+        <v>0.9452598327474092</v>
       </c>
       <c r="F12">
-        <v>1.067766824418724</v>
+        <v>0.9475962250969089</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.057642480039465</v>
+        <v>0.9560806295943817</v>
       </c>
       <c r="K12">
-        <v>1.06162958431155</v>
+        <v>0.9596307360775678</v>
       </c>
       <c r="L12">
-        <v>1.061203411594795</v>
+        <v>0.9615166864811046</v>
       </c>
       <c r="M12">
-        <v>1.071263471498063</v>
+        <v>0.9638013150906057</v>
       </c>
       <c r="N12">
-        <v>1.022363702895156</v>
+        <v>0.9849216526809619</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.051210341507673</v>
+        <v>0.9233226231426102</v>
       </c>
       <c r="D13">
-        <v>1.058196391377689</v>
+        <v>0.9439759569131385</v>
       </c>
       <c r="E13">
-        <v>1.057766633051658</v>
+        <v>0.9458912509499046</v>
       </c>
       <c r="F13">
-        <v>1.067869747245153</v>
+        <v>0.9482706360753713</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.057729848082199</v>
+        <v>0.9566620342511694</v>
       </c>
       <c r="K13">
-        <v>1.061717600626473</v>
+        <v>0.9602134394062039</v>
       </c>
       <c r="L13">
-        <v>1.06128937929498</v>
+        <v>0.9620862661406788</v>
       </c>
       <c r="M13">
-        <v>1.071356721265141</v>
+        <v>0.9644132114253201</v>
       </c>
       <c r="N13">
-        <v>1.022395092470031</v>
+        <v>0.985137914935251</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.051557542825474</v>
+        <v>0.9256837545300897</v>
       </c>
       <c r="D14">
-        <v>1.05851665565562</v>
+        <v>0.946073902740122</v>
       </c>
       <c r="E14">
-        <v>1.058080176728629</v>
+        <v>0.9479448503322055</v>
       </c>
       <c r="F14">
-        <v>1.068206880017271</v>
+        <v>0.9504640590910777</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.058015996511618</v>
+        <v>0.9585525524253817</v>
       </c>
       <c r="K14">
-        <v>1.062005875734165</v>
+        <v>0.9621082695019849</v>
       </c>
       <c r="L14">
-        <v>1.061570942271986</v>
+        <v>0.9639384372123342</v>
       </c>
       <c r="M14">
-        <v>1.071662147585232</v>
+        <v>0.9664030728382558</v>
       </c>
       <c r="N14">
-        <v>1.022497873661107</v>
+        <v>0.9858411807172612</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.051771375823083</v>
+        <v>0.9271247843469724</v>
       </c>
       <c r="D15">
-        <v>1.058713901529691</v>
+        <v>0.9473547705740424</v>
       </c>
       <c r="E15">
-        <v>1.058273282276896</v>
+        <v>0.9491986789538029</v>
       </c>
       <c r="F15">
-        <v>1.068414521361466</v>
+        <v>0.9518032556042937</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.058192210945734</v>
+        <v>0.9597064942338317</v>
       </c>
       <c r="K15">
-        <v>1.062183402447912</v>
+        <v>0.9632649102574803</v>
       </c>
       <c r="L15">
-        <v>1.061744333646822</v>
+        <v>0.965069049955637</v>
       </c>
       <c r="M15">
-        <v>1.071850244359646</v>
+        <v>0.9676178000410285</v>
       </c>
       <c r="N15">
-        <v>1.022561147795984</v>
+        <v>0.9862704833197887</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.053014632933413</v>
+        <v>0.935313824311349</v>
       </c>
       <c r="D16">
-        <v>1.059860759811118</v>
+        <v>0.9546402118301085</v>
       </c>
       <c r="E16">
-        <v>1.059396048653099</v>
+        <v>0.9563308195307328</v>
       </c>
       <c r="F16">
-        <v>1.069621920624345</v>
+        <v>0.9594210320830988</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.059216479925519</v>
+        <v>0.9662657899547842</v>
       </c>
       <c r="K16">
-        <v>1.063215339380078</v>
+        <v>0.9698405144877355</v>
       </c>
       <c r="L16">
-        <v>1.062752204201316</v>
+        <v>0.9714968356433661</v>
       </c>
       <c r="M16">
-        <v>1.072943744492237</v>
+        <v>0.9745247877278002</v>
       </c>
       <c r="N16">
-        <v>1.022928630352987</v>
+        <v>0.9887111809737944</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.053793332094963</v>
+        <v>0.9402872893536538</v>
       </c>
       <c r="D17">
-        <v>1.060579116072282</v>
+        <v>0.9590702345661309</v>
       </c>
       <c r="E17">
-        <v>1.060099298045009</v>
+        <v>0.9606680162330571</v>
       </c>
       <c r="F17">
-        <v>1.070378284137798</v>
+        <v>0.964053650892278</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.059857781946441</v>
+        <v>0.9702506622034804</v>
       </c>
       <c r="K17">
-        <v>1.063861477596405</v>
+        <v>0.9738361002871935</v>
       </c>
       <c r="L17">
-        <v>1.06338324852623</v>
+        <v>0.9754027096861354</v>
       </c>
       <c r="M17">
-        <v>1.073628536416645</v>
+        <v>0.9787227388278983</v>
       </c>
       <c r="N17">
-        <v>1.023158443197648</v>
+        <v>0.9901941443287202</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.054247122801946</v>
+        <v>0.9431335240086683</v>
       </c>
       <c r="D18">
-        <v>1.060997754037345</v>
+        <v>0.9616072428256415</v>
       </c>
       <c r="E18">
-        <v>1.060509126179034</v>
+        <v>0.9631519894718796</v>
       </c>
       <c r="F18">
-        <v>1.070819102753552</v>
+        <v>0.966706874650666</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.060231418383327</v>
+        <v>0.9725314671517945</v>
       </c>
       <c r="K18">
-        <v>1.064237944356233</v>
+        <v>0.9761233128075726</v>
       </c>
       <c r="L18">
-        <v>1.063750911949205</v>
+        <v>0.9776385977961654</v>
       </c>
       <c r="M18">
-        <v>1.074027562759262</v>
+        <v>0.9811261509024463</v>
       </c>
       <c r="N18">
-        <v>1.023292239329577</v>
+        <v>0.9910429493472644</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.05440178467115</v>
+        <v>0.944095099578538</v>
       </c>
       <c r="D19">
-        <v>1.061140437142803</v>
+        <v>0.9624646378148217</v>
       </c>
       <c r="E19">
-        <v>1.060648805640094</v>
+        <v>0.963991480866727</v>
       </c>
       <c r="F19">
-        <v>1.070969350895387</v>
+        <v>0.9676035783843772</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.060358747405625</v>
+        <v>0.9733020632367188</v>
       </c>
       <c r="K19">
-        <v>1.064366240046564</v>
+        <v>0.9768961192551856</v>
       </c>
       <c r="L19">
-        <v>1.063876206028758</v>
+        <v>0.9783940669130534</v>
       </c>
       <c r="M19">
-        <v>1.074163553006094</v>
+        <v>0.981938279640553</v>
       </c>
       <c r="N19">
-        <v>1.023337818185288</v>
+        <v>0.9913297232766201</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.053709827767501</v>
+        <v>0.9397594296577431</v>
       </c>
       <c r="D20">
-        <v>1.060502081367641</v>
+        <v>0.9585998650123031</v>
       </c>
       <c r="E20">
-        <v>1.060023883979475</v>
+        <v>0.9602074893743674</v>
       </c>
       <c r="F20">
-        <v>1.070297170415312</v>
+        <v>0.9635617503300935</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.059789020328171</v>
+        <v>0.9698276907382255</v>
       </c>
       <c r="K20">
-        <v>1.063792196121959</v>
+        <v>0.9734119626326865</v>
       </c>
       <c r="L20">
-        <v>1.06331558641015</v>
+        <v>0.9749880917791897</v>
       </c>
       <c r="M20">
-        <v>1.073555106372267</v>
+        <v>0.9782770823722549</v>
       </c>
       <c r="N20">
-        <v>1.023133812342748</v>
+        <v>0.9900367340387014</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.051455319316628</v>
+        <v>0.9249913516162873</v>
       </c>
       <c r="D21">
-        <v>1.058422362412337</v>
+        <v>0.9454585810541569</v>
       </c>
       <c r="E21">
-        <v>1.057987862438358</v>
+        <v>0.9473425277319837</v>
       </c>
       <c r="F21">
-        <v>1.068107618959236</v>
+        <v>0.9498207266015605</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.057931751936929</v>
+        <v>0.9579981283711332</v>
       </c>
       <c r="K21">
-        <v>1.061921004496671</v>
+        <v>0.9615525667811624</v>
       </c>
       <c r="L21">
-        <v>1.061488047541638</v>
+        <v>0.9633952426855531</v>
       </c>
       <c r="M21">
-        <v>1.071572225196358</v>
+        <v>0.9658194837484452</v>
       </c>
       <c r="N21">
-        <v>1.022467618163367</v>
+        <v>0.9856349280932245</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.050033945810124</v>
+        <v>0.915116824827668</v>
       </c>
       <c r="D22">
-        <v>1.057111305962142</v>
+        <v>0.9366922854574541</v>
       </c>
       <c r="E22">
-        <v>1.056704299849442</v>
+        <v>0.9387621302302177</v>
       </c>
       <c r="F22">
-        <v>1.066727604795402</v>
+        <v>0.9406560212198007</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.05676005402948</v>
+        <v>0.9500941289077249</v>
       </c>
       <c r="K22">
-        <v>1.060740638148381</v>
+        <v>0.9536316127961501</v>
       </c>
       <c r="L22">
-        <v>1.060335136896346</v>
+        <v>0.9556528258579065</v>
       </c>
       <c r="M22">
-        <v>1.070321750871318</v>
+        <v>0.9575024701443976</v>
       </c>
       <c r="N22">
-        <v>1.022046457816724</v>
+        <v>0.982695476154547</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.050787818305922</v>
+        <v>0.9204127087222685</v>
       </c>
       <c r="D23">
-        <v>1.057806656451158</v>
+        <v>0.9413917086675725</v>
       </c>
       <c r="E23">
-        <v>1.05738507328281</v>
+        <v>0.9433617310114464</v>
       </c>
       <c r="F23">
-        <v>1.067459502080612</v>
+        <v>0.9455688771438749</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.057381575323464</v>
+        <v>0.9543325109600651</v>
       </c>
       <c r="K23">
-        <v>1.061366746604084</v>
+        <v>0.9578787903262618</v>
       </c>
       <c r="L23">
-        <v>1.060946689499404</v>
+        <v>0.9598042130579761</v>
       </c>
       <c r="M23">
-        <v>1.070985014230036</v>
+        <v>0.9619616854386749</v>
       </c>
       <c r="N23">
-        <v>1.022269942973165</v>
+        <v>0.9842714699605426</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.053747561049085</v>
+        <v>0.9399981147957065</v>
       </c>
       <c r="D24">
-        <v>1.060536891168556</v>
+        <v>0.9588125490249636</v>
       </c>
       <c r="E24">
-        <v>1.060057961477949</v>
+        <v>0.9604157224923298</v>
       </c>
       <c r="F24">
-        <v>1.070333823312749</v>
+        <v>0.9637841692833139</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.059820092053893</v>
+        <v>0.9700189470142618</v>
       </c>
       <c r="K24">
-        <v>1.063823502719113</v>
+        <v>0.9736037453732987</v>
       </c>
       <c r="L24">
-        <v>1.063346161286894</v>
+        <v>0.9751755698758177</v>
       </c>
       <c r="M24">
-        <v>1.07358828748778</v>
+        <v>0.9784785941739996</v>
       </c>
       <c r="N24">
-        <v>1.023144942737654</v>
+        <v>0.9901079107143875</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.057166125959339</v>
+        <v>0.9606055731382019</v>
       </c>
       <c r="D25">
-        <v>1.063690850005484</v>
+        <v>0.9772084509611645</v>
       </c>
       <c r="E25">
-        <v>1.063145439626397</v>
+        <v>0.9784288568261496</v>
       </c>
       <c r="F25">
-        <v>1.073655447433862</v>
+        <v>0.9830262666351665</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.062633284044242</v>
+        <v>0.9865355508503817</v>
       </c>
       <c r="K25">
-        <v>1.066658231033261</v>
+        <v>0.9901711898879918</v>
       </c>
       <c r="L25">
-        <v>1.066114439089634</v>
+        <v>0.9913715290248322</v>
       </c>
       <c r="M25">
-        <v>1.076593574600591</v>
+        <v>0.9958939196879694</v>
       </c>
       <c r="N25">
-        <v>1.024150555004769</v>
+        <v>0.9962530175741438</v>
       </c>
     </row>
   </sheetData>
